--- a/biology/Zoologie/Bathyacmaea_secunda/Bathyacmaea_secunda.xlsx
+++ b/biology/Zoologie/Bathyacmaea_secunda/Bathyacmaea_secunda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathyacmaea secunda est une espèce de très petits mollusques prosobranches (les adultes mesurent généralement 6 mm en longueur) de mer profonde, de la famille des Pectinodontidae. L'espèce habite les communautés marines soutenues par la production chimiosynthétique des cheminées hydrothermales  et des suintements froids près du Japon (la fosse d'Okinawa).
 Elle se distingue des autres espèces de l'ordre des Patellogastropoda par les caractères suivants : ses intestins passent au travers de son ventricule, elle possède une paire de «dents» radulaires avec de longs tubes, et ses statocystes sont isolés des ganglions pleuraux et des ganglions podaux. Elle possède une cténidie plutôt que des habituelles branchies circumpalléales, l'absence d'osphradium, et pas même d'yeux rudimentaires.
@@ -510,43 +522,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Anatomie</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Système circulatoire
-Système nerveux
-Ganglions podaux et pleuraux
-Ganglion cérébral</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bathyacmaea_secunda</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bathyacmaea_secunda</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
